--- a/StructureDefinition-general-complaints-after-vaccination.xlsx
+++ b/StructureDefinition-general-complaints-after-vaccination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-07T21:11:53+00:00</t>
+    <t>2021-10-07T21:14:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-general-complaints-after-vaccination.xlsx
+++ b/StructureDefinition-general-complaints-after-vaccination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T09:47:10+00:00</t>
+    <t>2021-10-12T12:09:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-general-complaints-after-vaccination.xlsx
+++ b/StructureDefinition-general-complaints-after-vaccination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T12:09:14+00:00</t>
+    <t>2021-10-12T12:33:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-general-complaints-after-vaccination.xlsx
+++ b/StructureDefinition-general-complaints-after-vaccination.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$113</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4206" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4244" uniqueCount="543">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T12:33:34+00:00</t>
+    <t>2021-10-12T17:20:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -773,6 +773,15 @@
     <t>The categorization is often highly contextual and may appear poorly differentiated or not very useful in other contexts.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="31044-1"/&gt;
+    &lt;display value="Immunization Reaction"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/condition-category</t>
   </si>
   <si>
@@ -800,7 +809,7 @@
     <t>Coding of the severity with a terminology is preferred, where possible.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-severity</t>
+    <t>https://www.netzwerk-universitaetsmedizin.de/fhir/ValueSet/complaint-intensity</t>
   </si>
   <si>
     <t>&lt; 272141005 |Severities|</t>
@@ -837,7 +846,10 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>https://www.netzwerk-universitaetsmedizin.de/fhir/ValueSet/general-complaints-after-vaccination</t>
+    <t>Identification of the condition or diagnosis.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1144,6 +1156,12 @@
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="http://www.orpha.net"/&gt;
 &lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>nvm</t>
+  </si>
+  <si>
+    <t>https://www.netzwerk-universitaetsmedizin.de/fhir/ValueSet/general-complaints-after-vaccination</t>
   </si>
   <si>
     <t>Condition.code.text</t>
@@ -2026,7 +2044,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO112"/>
+  <dimension ref="A1:AO113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4705,7 +4723,7 @@
         <v>76</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>76</v>
@@ -4726,7 +4744,7 @@
         <v>240</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>76</v>
@@ -4762,24 +4780,24 @@
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4787,13 +4805,13 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -4805,13 +4823,13 @@
         <v>214</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4837,13 +4855,11 @@
         <v>76</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>76</v>
@@ -4861,7 +4877,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4879,28 +4895,28 @@
         <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4922,16 +4938,16 @@
         <v>214</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>76</v>
@@ -4956,11 +4972,13 @@
         <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="X25" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="Y25" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>76</v>
@@ -4978,7 +4996,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4993,27 +5011,27 @@
         <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5128,7 +5146,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5245,7 +5263,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5271,16 +5289,16 @@
         <v>143</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>76</v>
@@ -5317,7 +5335,7 @@
         <v>76</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
@@ -5327,7 +5345,7 @@
         <v>115</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5348,10 +5366,10 @@
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>76</v>
@@ -5362,10 +5380,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>76</v>
@@ -5387,19 +5405,19 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>76</v>
@@ -5409,7 +5427,7 @@
         <v>76</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>76</v>
@@ -5428,7 +5446,7 @@
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>76</v>
@@ -5446,7 +5464,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5467,10 +5485,10 @@
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>76</v>
@@ -5481,7 +5499,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5596,7 +5614,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5713,10 +5731,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>108</v>
@@ -5738,13 +5756,13 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>112</v>
@@ -5832,10 +5850,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>108</v>
@@ -5857,13 +5875,13 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>112</v>
@@ -5951,10 +5969,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>108</v>
@@ -5976,13 +5994,13 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>112</v>
@@ -6070,7 +6088,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6096,23 +6114,23 @@
         <v>131</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>76</v>
@@ -6154,7 +6172,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6175,10 +6193,10 @@
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>76</v>
@@ -6189,7 +6207,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6215,13 +6233,13 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6271,7 +6289,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6292,10 +6310,10 @@
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>76</v>
@@ -6306,7 +6324,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6332,16 +6350,16 @@
         <v>167</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
@@ -6354,7 +6372,7 @@
         <v>76</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>76</v>
@@ -6390,7 +6408,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6402,7 +6420,7 @@
         <v>99</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>76</v>
@@ -6411,10 +6429,10 @@
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>76</v>
@@ -6425,7 +6443,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6451,16 +6469,16 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>76</v>
@@ -6509,7 +6527,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6530,10 +6548,10 @@
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>76</v>
@@ -6544,7 +6562,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6567,19 +6585,19 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>76</v>
@@ -6628,7 +6646,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6649,10 +6667,10 @@
         <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>76</v>
@@ -6663,10 +6681,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>76</v>
@@ -6688,19 +6706,19 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>76</v>
@@ -6710,7 +6728,7 @@
         <v>76</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="S40" t="s" s="2">
         <v>76</v>
@@ -6729,7 +6747,7 @@
       </c>
       <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>76</v>
@@ -6747,7 +6765,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6768,10 +6786,10 @@
         <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>76</v>
@@ -6782,7 +6800,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6897,7 +6915,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7014,7 +7032,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7040,23 +7058,23 @@
         <v>131</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>76</v>
@@ -7098,7 +7116,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7119,10 +7137,10 @@
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>76</v>
@@ -7133,7 +7151,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7159,13 +7177,13 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7215,7 +7233,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7236,10 +7254,10 @@
         <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>76</v>
@@ -7250,7 +7268,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7276,16 +7294,16 @@
         <v>167</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -7334,7 +7352,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7355,10 +7373,10 @@
         <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>76</v>
@@ -7369,7 +7387,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7395,16 +7413,16 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>76</v>
@@ -7453,7 +7471,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7474,10 +7492,10 @@
         <v>76</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>76</v>
@@ -7488,7 +7506,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7511,19 +7529,19 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>76</v>
@@ -7572,7 +7590,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7593,10 +7611,10 @@
         <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>76</v>
@@ -7607,10 +7625,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>76</v>
@@ -7635,16 +7653,16 @@
         <v>143</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>76</v>
@@ -7654,7 +7672,7 @@
         <v>76</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>76</v>
@@ -7673,7 +7691,7 @@
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>76</v>
@@ -7691,7 +7709,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7712,10 +7730,10 @@
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>76</v>
@@ -7726,7 +7744,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7841,7 +7859,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7958,7 +7976,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7984,16 +8002,16 @@
         <v>131</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>76</v>
@@ -8042,7 +8060,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8063,10 +8081,10 @@
         <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>76</v>
@@ -8077,7 +8095,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8103,13 +8121,13 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8159,7 +8177,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8180,10 +8198,10 @@
         <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>76</v>
@@ -8194,7 +8212,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8220,16 +8238,16 @@
         <v>167</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>76</v>
@@ -8278,7 +8296,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8299,10 +8317,10 @@
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>76</v>
@@ -8313,7 +8331,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8339,16 +8357,16 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>76</v>
@@ -8397,7 +8415,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8418,10 +8436,10 @@
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>76</v>
@@ -8432,7 +8450,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8455,19 +8473,19 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -8516,7 +8534,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8537,10 +8555,10 @@
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>76</v>
@@ -8551,10 +8569,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>76</v>
@@ -8579,16 +8597,16 @@
         <v>143</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>76</v>
@@ -8598,7 +8616,7 @@
         <v>76</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>76</v>
@@ -8637,7 +8655,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8658,10 +8676,10 @@
         <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>76</v>
@@ -8672,7 +8690,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8787,7 +8805,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8904,7 +8922,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8930,16 +8948,16 @@
         <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>76</v>
@@ -8988,7 +9006,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9009,10 +9027,10 @@
         <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>76</v>
@@ -9023,7 +9041,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9049,13 +9067,13 @@
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9105,7 +9123,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9126,10 +9144,10 @@
         <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>76</v>
@@ -9140,7 +9158,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9166,16 +9184,16 @@
         <v>167</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>76</v>
@@ -9224,7 +9242,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9245,10 +9263,10 @@
         <v>76</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>76</v>
@@ -9259,7 +9277,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9285,16 +9303,16 @@
         <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>76</v>
@@ -9343,7 +9361,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9364,10 +9382,10 @@
         <v>76</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>76</v>
@@ -9378,7 +9396,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9401,19 +9419,19 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>76</v>
@@ -9462,7 +9480,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9483,10 +9501,10 @@
         <v>76</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>76</v>
@@ -9495,23 +9513,25 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="B64" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="C64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>76</v>
@@ -9520,19 +9540,19 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>358</v>
+        <v>275</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>359</v>
+        <v>276</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>360</v>
+        <v>277</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>361</v>
+        <v>278</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>76</v>
@@ -9557,13 +9577,11 @@
         <v>76</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="X64" s="2"/>
       <c r="Y64" t="s" s="2">
-        <v>76</v>
+        <v>360</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>76</v>
@@ -9581,13 +9599,13 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>362</v>
+        <v>280</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>99</v>
@@ -9602,10 +9620,10 @@
         <v>76</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>363</v>
+        <v>281</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>364</v>
+        <v>282</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>76</v>
@@ -9614,9 +9632,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9627,10 +9645,10 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>76</v>
@@ -9639,18 +9657,20 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>214</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>76</v>
       </c>
@@ -9674,13 +9694,13 @@
         <v>76</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>369</v>
+        <v>76</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>370</v>
+        <v>76</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>76</v>
@@ -9698,13 +9718,13 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>99</v>
@@ -9716,24 +9736,24 @@
         <v>76</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>371</v>
+        <v>76</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>374</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9744,27 +9764,29 @@
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>103</v>
+        <v>370</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>76</v>
@@ -9789,13 +9811,13 @@
         <v>76</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>76</v>
+        <v>373</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>76</v>
+        <v>374</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>76</v>
@@ -9813,53 +9835,53 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>105</v>
+        <v>369</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>76</v>
+        <v>375</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>76</v>
+        <v>376</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>106</v>
+        <v>377</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>76</v>
+        <v>378</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>76</v>
@@ -9871,17 +9893,15 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>76</v>
@@ -9918,31 +9938,31 @@
         <v>76</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>76</v>
@@ -9954,7 +9974,7 @@
         <v>76</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>76</v>
@@ -9965,43 +9985,41 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>273</v>
+        <v>110</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>274</v>
+        <v>111</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>76</v>
       </c>
@@ -10037,9 +10055,11 @@
         <v>76</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AB68" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="AC68" t="s" s="2">
         <v>76</v>
       </c>
@@ -10047,7 +10067,7 @@
         <v>115</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>278</v>
+        <v>116</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10059,7 +10079,7 @@
         <v>99</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>76</v>
@@ -10068,10 +10088,10 @@
         <v>76</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>280</v>
+        <v>101</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>76</v>
@@ -10080,13 +10100,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
         <v>76</v>
       </c>
@@ -10095,7 +10113,7 @@
         <v>87</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>88</v>
@@ -10110,16 +10128,16 @@
         <v>143</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>76</v>
@@ -10156,19 +10174,17 @@
         <v>76</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="AB69" s="2"/>
       <c r="AC69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10189,10 +10205,10 @@
         <v>76</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>76</v>
@@ -10201,41 +10217,47 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="B70" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="C70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>103</v>
+        <v>275</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>76</v>
       </c>
@@ -10283,19 +10305,19 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>105</v>
+        <v>280</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>76</v>
@@ -10304,10 +10326,10 @@
         <v>76</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>106</v>
+        <v>282</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>76</v>
@@ -10318,18 +10340,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>76</v>
@@ -10341,17 +10363,15 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>76</v>
@@ -10388,31 +10408,31 @@
         <v>76</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>76</v>
@@ -10424,7 +10444,7 @@
         <v>76</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>76</v>
@@ -10433,45 +10453,43 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>351</v>
+        <v>110</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>299</v>
+        <v>111</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>76</v>
       </c>
@@ -10480,7 +10498,7 @@
         <v>76</v>
       </c>
       <c r="R72" t="s" s="2">
-        <v>383</v>
+        <v>76</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>76</v>
@@ -10507,31 +10525,31 @@
         <v>76</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>303</v>
+        <v>116</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>76</v>
@@ -10540,10 +10558,10 @@
         <v>76</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>304</v>
+        <v>76</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>305</v>
+        <v>101</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>76</v>
@@ -10552,9 +10570,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10562,13 +10580,13 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>76</v>
@@ -10577,18 +10595,20 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>353</v>
+        <v>301</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>76</v>
       </c>
@@ -10597,7 +10617,7 @@
         <v>76</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>76</v>
+        <v>387</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>76</v>
@@ -10636,7 +10656,7 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10657,10 +10677,10 @@
         <v>76</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>76</v>
@@ -10671,7 +10691,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10679,7 +10699,7 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>87</v>
@@ -10694,20 +10714,18 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>354</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>76</v>
       </c>
@@ -10755,7 +10773,7 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10776,10 +10794,10 @@
         <v>76</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>76</v>
@@ -10790,7 +10808,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10798,7 +10816,7 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>87</v>
@@ -10813,19 +10831,19 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>76</v>
@@ -10874,7 +10892,7 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10895,10 +10913,10 @@
         <v>76</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>76</v>
@@ -10909,7 +10927,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10932,19 +10950,19 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>331</v>
+        <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>76</v>
@@ -10993,7 +11011,7 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11014,10 +11032,10 @@
         <v>76</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>76</v>
@@ -11028,7 +11046,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11051,19 +11069,19 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>89</v>
+        <v>333</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>76</v>
@@ -11112,7 +11130,7 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11133,10 +11151,10 @@
         <v>76</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>76</v>
@@ -11145,23 +11163,23 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>390</v>
+        <v>76</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>76</v>
@@ -11170,19 +11188,19 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>391</v>
+        <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>392</v>
+        <v>362</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>393</v>
+        <v>363</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>76</v>
@@ -11231,10 +11249,10 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>87</v>
@@ -11243,22 +11261,22 @@
         <v>99</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>396</v>
+        <v>100</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>397</v>
+        <v>76</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>398</v>
+        <v>367</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>400</v>
+        <v>76</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>76</v>
@@ -11266,15 +11284,15 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>76</v>
+        <v>394</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>87</v>
@@ -11289,18 +11307,20 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>76</v>
       </c>
@@ -11348,10 +11368,10 @@
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>87</v>
@@ -11360,30 +11380,30 @@
         <v>99</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="AJ79" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AK79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL79" t="s" s="2">
+      <c r="AN79" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AM79" t="s" s="2">
+      <c r="AO79" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11406,16 +11426,16 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11453,17 +11473,19 @@
         <v>76</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AB80" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>413</v>
+        <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11475,34 +11497,32 @@
         <v>99</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
         <v>76</v>
       </c>
@@ -11523,16 +11543,16 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11570,19 +11590,17 @@
         <v>76</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="AB81" s="2"/>
       <c r="AC81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>76</v>
+        <v>417</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11597,29 +11615,31 @@
         <v>100</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B82" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="C82" t="s" s="2">
         <v>76</v>
       </c>
@@ -11631,24 +11651,26 @@
         <v>87</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>89</v>
+        <v>423</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>103</v>
+        <v>413</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>76</v>
@@ -11697,7 +11719,7 @@
         <v>76</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>105</v>
+        <v>411</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11706,25 +11728,25 @@
         <v>87</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>76</v>
+        <v>418</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>76</v>
+        <v>419</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>106</v>
+        <v>420</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>76</v>
+        <v>421</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>76</v>
@@ -11732,18 +11754,18 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>76</v>
@@ -11755,17 +11777,15 @@
         <v>76</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>76</v>
@@ -11802,31 +11822,31 @@
         <v>76</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AC83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>76</v>
@@ -11838,7 +11858,7 @@
         <v>76</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>76</v>
@@ -11847,41 +11867,41 @@
         <v>76</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>423</v>
+        <v>109</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>424</v>
+        <v>110</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>425</v>
+        <v>111</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>426</v>
+        <v>112</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11919,31 +11939,31 @@
         <v>76</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>427</v>
+        <v>116</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>428</v>
+        <v>99</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>76</v>
@@ -11952,10 +11972,10 @@
         <v>76</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>430</v>
+        <v>101</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>76</v>
@@ -11964,9 +11984,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11980,24 +12000,26 @@
         <v>87</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>89</v>
+        <v>427</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>103</v>
+        <v>428</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>76</v>
@@ -12046,7 +12068,7 @@
         <v>76</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>105</v>
+        <v>431</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12055,10 +12077,10 @@
         <v>87</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>76</v>
+        <v>432</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>76</v>
@@ -12067,10 +12089,10 @@
         <v>76</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>76</v>
+        <v>433</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>106</v>
+        <v>434</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>76</v>
@@ -12081,18 +12103,18 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>76</v>
@@ -12104,17 +12126,15 @@
         <v>76</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>76</v>
@@ -12151,31 +12171,31 @@
         <v>76</v>
       </c>
       <c r="AA86" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AC86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD86" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>76</v>
@@ -12187,7 +12207,7 @@
         <v>76</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>76</v>
@@ -12196,13 +12216,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
         <v>108</v>
       </c>
@@ -12211,10 +12229,10 @@
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>76</v>
@@ -12223,13 +12241,13 @@
         <v>76</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>434</v>
+        <v>109</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>291</v>
+        <v>110</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>292</v>
+        <v>111</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>112</v>
@@ -12270,16 +12288,16 @@
         <v>76</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD87" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AE87" t="s" s="2">
         <v>116</v>
@@ -12315,13 +12333,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="B88" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="C88" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12331,7 +12351,7 @@
         <v>87</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>76</v>
@@ -12340,15 +12360,17 @@
         <v>76</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>436</v>
+        <v>293</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M88" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>76</v>
@@ -12397,19 +12419,19 @@
         <v>76</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>437</v>
+        <v>116</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>76</v>
@@ -12421,7 +12443,7 @@
         <v>76</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>76</v>
@@ -12430,9 +12452,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12446,112 +12468,108 @@
         <v>87</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L89" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="M89" t="s" s="2">
-        <v>441</v>
-      </c>
+      <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P89" t="s" s="2">
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="Q89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO89" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12565,29 +12583,33 @@
         <v>87</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>89</v>
+        <v>427</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>103</v>
+        <v>443</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M90" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="Q90" t="s" s="2">
         <v>76</v>
       </c>
@@ -12631,7 +12653,7 @@
         <v>76</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>105</v>
+        <v>447</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12640,10 +12662,10 @@
         <v>87</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>76</v>
+        <v>432</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>76</v>
@@ -12652,10 +12674,10 @@
         <v>76</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>76</v>
+        <v>448</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>106</v>
+        <v>449</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>76</v>
@@ -12666,18 +12688,18 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>76</v>
@@ -12689,17 +12711,15 @@
         <v>76</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>76</v>
@@ -12736,31 +12756,31 @@
         <v>76</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AC91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>76</v>
@@ -12772,7 +12792,7 @@
         <v>76</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>76</v>
@@ -12781,13 +12801,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
         <v>108</v>
       </c>
@@ -12796,10 +12814,10 @@
         <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>76</v>
@@ -12808,13 +12826,13 @@
         <v>76</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>434</v>
+        <v>109</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>291</v>
+        <v>110</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>292</v>
+        <v>111</v>
       </c>
       <c r="M92" t="s" s="2">
         <v>112</v>
@@ -12855,16 +12873,16 @@
         <v>76</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD92" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AE92" t="s" s="2">
         <v>116</v>
@@ -12900,13 +12918,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="B93" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="C93" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12916,7 +12936,7 @@
         <v>87</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>76</v>
@@ -12925,15 +12945,17 @@
         <v>76</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>436</v>
+        <v>293</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M93" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>76</v>
@@ -12982,19 +13004,19 @@
         <v>76</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>437</v>
+        <v>116</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>76</v>
@@ -13006,7 +13028,7 @@
         <v>76</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>76</v>
@@ -13015,13 +13037,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
         <v>76</v>
       </c>
@@ -13033,26 +13053,24 @@
         <v>87</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>409</v>
+        <v>440</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>76</v>
@@ -13101,7 +13119,7 @@
         <v>76</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13110,35 +13128,37 @@
         <v>87</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>414</v>
+        <v>76</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>415</v>
+        <v>76</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>416</v>
+        <v>76</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>417</v>
+        <v>76</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B95" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="C95" t="s" s="2">
         <v>76</v>
       </c>
@@ -13150,25 +13170,25 @@
         <v>87</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>453</v>
+        <v>413</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>455</v>
+        <v>415</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13218,7 +13238,7 @@
         <v>76</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>451</v>
+        <v>411</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -13227,33 +13247,33 @@
         <v>87</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>456</v>
+        <v>99</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>76</v>
+        <v>418</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>76</v>
+        <v>419</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>457</v>
+        <v>420</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>458</v>
+        <v>421</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13261,30 +13281,32 @@
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M96" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>76</v>
@@ -13333,7 +13355,7 @@
         <v>76</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13342,7 +13364,7 @@
         <v>87</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>99</v>
+        <v>460</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>100</v>
@@ -13354,21 +13376,21 @@
         <v>76</v>
       </c>
       <c r="AL96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AN96" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="AM96" t="s" s="2">
+      <c r="AO96" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13376,13 +13398,13 @@
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F97" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>76</v>
@@ -13391,17 +13413,15 @@
         <v>88</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>76</v>
@@ -13450,7 +13470,7 @@
         <v>76</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13462,7 +13482,7 @@
         <v>99</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>469</v>
+        <v>100</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>76</v>
@@ -13471,13 +13491,13 @@
         <v>76</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>76</v>
+        <v>466</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>76</v>
@@ -13485,7 +13505,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13508,16 +13528,16 @@
         <v>88</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -13567,7 +13587,7 @@
         <v>76</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13579,7 +13599,7 @@
         <v>99</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>76</v>
@@ -13588,13 +13608,13 @@
         <v>76</v>
       </c>
       <c r="AL98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AN98" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>76</v>
@@ -13602,7 +13622,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13613,7 +13633,7 @@
         <v>77</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>76</v>
@@ -13622,18 +13642,20 @@
         <v>76</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M99" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>76</v>
@@ -13682,19 +13704,19 @@
         <v>76</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>76</v>
@@ -13703,13 +13725,13 @@
         <v>76</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>76</v>
+        <v>479</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>76</v>
+        <v>481</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>76</v>
@@ -13717,7 +13739,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13728,7 +13750,7 @@
         <v>77</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>76</v>
@@ -13740,13 +13762,13 @@
         <v>76</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>89</v>
+        <v>483</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>103</v>
+        <v>484</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>104</v>
+        <v>485</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13797,19 +13819,19 @@
         <v>76</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>105</v>
+        <v>482</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>76</v>
+        <v>486</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>76</v>
@@ -13821,7 +13843,7 @@
         <v>76</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>106</v>
+        <v>487</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>76</v>
@@ -13832,18 +13854,18 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>76</v>
@@ -13855,17 +13877,15 @@
         <v>76</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M101" s="2"/>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>76</v>
@@ -13902,31 +13922,31 @@
         <v>76</v>
       </c>
       <c r="AA101" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AC101" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD101" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>76</v>
@@ -13938,7 +13958,7 @@
         <v>76</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>76</v>
@@ -13949,11 +13969,11 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>487</v>
+        <v>108</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13966,26 +13986,24 @@
         <v>76</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J102" t="s" s="2">
         <v>109</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>488</v>
+        <v>110</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>489</v>
+        <v>111</v>
       </c>
       <c r="M102" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N102" t="s" s="2">
-        <v>201</v>
-      </c>
+      <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>76</v>
       </c>
@@ -14021,19 +14039,19 @@
         <v>76</v>
       </c>
       <c r="AA102" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD102" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>490</v>
+        <v>116</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>77</v>
@@ -14068,30 +14086,30 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>76</v>
+        <v>491</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>214</v>
+        <v>109</v>
       </c>
       <c r="K103" t="s" s="2">
         <v>492</v>
@@ -14100,9 +14118,11 @@
         <v>493</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N103" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O103" t="s" s="2">
         <v>76</v>
       </c>
@@ -14126,55 +14146,55 @@
         <v>76</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="X103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE103" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="Y103" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>491</v>
-      </c>
       <c r="AF103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>496</v>
+        <v>99</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>497</v>
+        <v>76</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>267</v>
+        <v>101</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>76</v>
@@ -14185,7 +14205,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14196,7 +14216,7 @@
         <v>77</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>76</v>
@@ -14208,16 +14228,16 @@
         <v>76</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>499</v>
+        <v>214</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>394</v>
+        <v>262</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -14243,13 +14263,13 @@
         <v>76</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>76</v>
+        <v>498</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>76</v>
+        <v>499</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>76</v>
@@ -14267,31 +14287,31 @@
         <v>76</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>469</v>
+        <v>100</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>76</v>
+        <v>501</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>502</v>
+        <v>269</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>76</v>
@@ -14302,7 +14322,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14313,7 +14333,7 @@
         <v>77</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>76</v>
@@ -14325,7 +14345,7 @@
         <v>76</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>214</v>
+        <v>503</v>
       </c>
       <c r="K105" t="s" s="2">
         <v>504</v>
@@ -14334,7 +14354,7 @@
         <v>505</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>261</v>
+        <v>398</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -14360,55 +14380,55 @@
         <v>76</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="X105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM105" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>76</v>
@@ -14419,7 +14439,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14430,7 +14450,7 @@
         <v>77</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>76</v>
@@ -14442,16 +14462,16 @@
         <v>76</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>479</v>
+        <v>214</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>512</v>
+        <v>262</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14477,13 +14497,13 @@
         <v>76</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>76</v>
+        <v>510</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>76</v>
+        <v>511</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>76</v>
@@ -14501,19 +14521,19 @@
         <v>76</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>513</v>
+        <v>100</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>76</v>
@@ -14522,10 +14542,10 @@
         <v>76</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>76</v>
+        <v>376</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>76</v>
@@ -14536,7 +14556,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14547,7 +14567,7 @@
         <v>77</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>76</v>
@@ -14559,15 +14579,17 @@
         <v>76</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>89</v>
+        <v>483</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>103</v>
+        <v>514</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M107" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>76</v>
@@ -14616,19 +14638,19 @@
         <v>76</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>105</v>
+        <v>513</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>76</v>
+        <v>517</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>76</v>
@@ -14640,7 +14662,7 @@
         <v>76</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>106</v>
+        <v>518</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>76</v>
@@ -14651,18 +14673,18 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>76</v>
@@ -14674,17 +14696,15 @@
         <v>76</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M108" s="2"/>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>76</v>
@@ -14721,31 +14741,31 @@
         <v>76</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AC108" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>76</v>
@@ -14757,7 +14777,7 @@
         <v>76</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>76</v>
@@ -14768,11 +14788,11 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>487</v>
+        <v>108</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -14785,26 +14805,24 @@
         <v>76</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J109" t="s" s="2">
         <v>109</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>488</v>
+        <v>110</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>489</v>
+        <v>111</v>
       </c>
       <c r="M109" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N109" t="s" s="2">
-        <v>201</v>
-      </c>
+      <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>76</v>
       </c>
@@ -14840,19 +14858,19 @@
         <v>76</v>
       </c>
       <c r="AA109" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AB109" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AC109" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD109" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>490</v>
+        <v>116</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
@@ -14887,11 +14905,11 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>76</v>
+        <v>491</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -14904,24 +14922,26 @@
         <v>76</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I110" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>214</v>
+        <v>109</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>519</v>
+        <v>492</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>520</v>
+        <v>493</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N110" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O110" t="s" s="2">
         <v>76</v>
       </c>
@@ -14945,13 +14965,13 @@
         <v>76</v>
       </c>
       <c r="W110" t="s" s="2">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>521</v>
+        <v>76</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>522</v>
+        <v>76</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>76</v>
@@ -14969,7 +14989,7 @@
         <v>76</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>77</v>
@@ -14978,25 +14998,25 @@
         <v>78</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>523</v>
+        <v>99</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>524</v>
+        <v>76</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>372</v>
+        <v>76</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>525</v>
+        <v>101</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>526</v>
+        <v>76</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>76</v>
@@ -15004,7 +15024,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15027,16 +15047,16 @@
         <v>88</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>528</v>
+        <v>214</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>394</v>
+        <v>262</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -15062,13 +15082,13 @@
         <v>76</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>76</v>
+        <v>525</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>76</v>
+        <v>526</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>76</v>
@@ -15086,7 +15106,7 @@
         <v>76</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>77</v>
@@ -15095,31 +15115,31 @@
         <v>78</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>469</v>
+        <v>100</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>76</v>
+        <v>528</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>76</v>
+        <v>376</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>502</v>
+        <v>529</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
         <v>531</v>
       </c>
@@ -15135,13 +15155,13 @@
         <v>78</v>
       </c>
       <c r="G112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I112" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="J112" t="s" s="2">
         <v>532</v>
@@ -15153,7 +15173,7 @@
         <v>534</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>535</v>
+        <v>398</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -15212,32 +15232,149 @@
         <v>78</v>
       </c>
       <c r="AH112" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AO112" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="N113" s="2"/>
+      <c r="O113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH113" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AI112" t="s" s="2">
+      <c r="AI113" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ112" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO112" t="s" s="2">
+      <c r="AJ113" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO113" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO112">
+  <autoFilter ref="A1:AO113">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15247,7 +15384,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI111">
+  <conditionalFormatting sqref="A2:AI112">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-general-complaints-after-vaccination.xlsx
+++ b/StructureDefinition-general-complaints-after-vaccination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T17:20:00+00:00</t>
+    <t>2021-10-12T17:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-general-complaints-after-vaccination.xlsx
+++ b/StructureDefinition-general-complaints-after-vaccination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T17:32:20+00:00</t>
+    <t>2021-10-12T18:03:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-general-complaints-after-vaccination.xlsx
+++ b/StructureDefinition-general-complaints-after-vaccination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-13T21:31:05+00:00</t>
+    <t>2021-10-13T21:39:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-general-complaints-after-vaccination.xlsx
+++ b/StructureDefinition-general-complaints-after-vaccination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-13T21:39:19+00:00</t>
+    <t>2021-10-15T12:18:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-general-complaints-after-vaccination.xlsx
+++ b/StructureDefinition-general-complaints-after-vaccination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-15T12:18:04+00:00</t>
+    <t>2021-10-19T07:51:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-general-complaints-after-vaccination.xlsx
+++ b/StructureDefinition-general-complaints-after-vaccination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T07:51:56+00:00</t>
+    <t>2021-10-19T09:50:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-general-complaints-after-vaccination.xlsx
+++ b/StructureDefinition-general-complaints-after-vaccination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T09:50:53+00:00</t>
+    <t>2021-10-19T15:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-general-complaints-after-vaccination.xlsx
+++ b/StructureDefinition-general-complaints-after-vaccination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T15:41:32+00:00</t>
+    <t>2021-10-19T21:05:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-general-complaints-after-vaccination.xlsx
+++ b/StructureDefinition-general-complaints-after-vaccination.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T21:05:56+00:00</t>
+    <t>2021-10-19T21:09:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
